--- a/October'21/07.10.2021/Bank Statement October-2021.xlsx
+++ b/October'21/07.10.2021/Bank Statement October-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -134,6 +134,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -142,6 +143,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Rocky+Rico</t>
@@ -1039,7 +1041,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1453,17 +1455,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -3404,6 +3395,12 @@
     <xf numFmtId="0" fontId="60" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3420,12 +3417,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4203,48 +4194,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="336" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="334"/>
-      <c r="C1" s="334"/>
-      <c r="D1" s="334"/>
-      <c r="E1" s="334"/>
-      <c r="F1" s="334"/>
-      <c r="G1" s="334"/>
-      <c r="H1" s="334"/>
-      <c r="I1" s="334"/>
-      <c r="J1" s="334"/>
-      <c r="K1" s="334"/>
-      <c r="L1" s="334"/>
-      <c r="M1" s="334"/>
-      <c r="N1" s="334"/>
-      <c r="O1" s="334"/>
-      <c r="P1" s="334"/>
-      <c r="Q1" s="334"/>
-      <c r="R1" s="334"/>
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="336"/>
+      <c r="G1" s="336"/>
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="336"/>
+      <c r="K1" s="336"/>
+      <c r="L1" s="336"/>
+      <c r="M1" s="336"/>
+      <c r="N1" s="336"/>
+      <c r="O1" s="336"/>
+      <c r="P1" s="336"/>
+      <c r="Q1" s="336"/>
+      <c r="R1" s="336"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="335" t="s">
+      <c r="A2" s="337" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="335"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335"/>
-      <c r="I2" s="335"/>
-      <c r="J2" s="335"/>
-      <c r="K2" s="335"/>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
-      <c r="N2" s="335"/>
-      <c r="O2" s="335"/>
-      <c r="P2" s="335"/>
-      <c r="Q2" s="335"/>
-      <c r="R2" s="335"/>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
+      <c r="J2" s="337"/>
+      <c r="K2" s="337"/>
+      <c r="L2" s="337"/>
+      <c r="M2" s="337"/>
+      <c r="N2" s="337"/>
+      <c r="O2" s="337"/>
+      <c r="P2" s="337"/>
+      <c r="Q2" s="337"/>
+      <c r="R2" s="337"/>
     </row>
     <row r="3" spans="1:25" s="68" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="346" t="s">
@@ -4275,34 +4266,34 @@
       <c r="Y3" s="71"/>
     </row>
     <row r="4" spans="1:25" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="336" t="s">
+      <c r="A4" s="338" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="338" t="s">
+      <c r="B4" s="340" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="340" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="340" t="s">
+      <c r="D4" s="334" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="340" t="s">
+      <c r="E4" s="334" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="340" t="s">
+      <c r="F4" s="334" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="340" t="s">
+      <c r="G4" s="334" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="340" t="s">
+      <c r="H4" s="334" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="340" t="s">
+      <c r="I4" s="334" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="340" t="s">
+      <c r="J4" s="334" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="349" t="s">
@@ -4336,16 +4327,16 @@
       <c r="X4" s="70"/>
     </row>
     <row r="5" spans="1:25" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="337"/>
-      <c r="B5" s="339"/>
-      <c r="C5" s="339"/>
-      <c r="D5" s="341"/>
-      <c r="E5" s="341"/>
-      <c r="F5" s="341"/>
-      <c r="G5" s="341"/>
-      <c r="H5" s="341"/>
-      <c r="I5" s="341"/>
-      <c r="J5" s="341"/>
+      <c r="A5" s="339"/>
+      <c r="B5" s="341"/>
+      <c r="C5" s="341"/>
+      <c r="D5" s="335"/>
+      <c r="E5" s="335"/>
+      <c r="F5" s="335"/>
+      <c r="G5" s="335"/>
+      <c r="H5" s="335"/>
+      <c r="I5" s="335"/>
+      <c r="J5" s="335"/>
       <c r="K5" s="350"/>
       <c r="L5" s="343"/>
       <c r="M5" s="352"/>
@@ -7304,6 +7295,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -7320,10 +7315,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9298,8 +9289,8 @@
   </sheetPr>
   <dimension ref="B1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10695,9 +10686,9 @@
   </sheetPr>
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
